--- a/Drug_AI_Literature_Review.xlsx
+++ b/Drug_AI_Literature_Review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengd/Desktop/github/DrugAIPapers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengd/Desktop/github/DrugDiscoveryAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7697A-6022-8749-B2E4-9959F9FFD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94A2C0-9364-8C49-9C58-9751253D733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13321-020-00479-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41698-020-0122-1 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ejmech.2020.112982.</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -226,6 +238,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC854739-9A0A-2746-93A9-E813AC43B7EB}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -557,22 +575,23 @@
     <col min="5" max="5" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="1"/>
-    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="22.83203125" style="1"/>
+    <col min="8" max="8" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="1"/>
+    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="22.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,43 +614,46 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
@@ -650,11 +672,15 @@
       <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="152" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="152" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -667,20 +693,20 @@
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -702,8 +728,12 @@
       <c r="G4" s="1">
         <v>30</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="76" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -713,10 +743,17 @@
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://towardsdatascience.com/review-deep-learning-in-drug-discovery-f4c89e3321e1" xr:uid="{1C3764AE-1EDC-2040-9C23-872FD23BC258}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{34245005-7E5D-254E-88A0-B442358C6A5E}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{06C5F47F-9841-4A48-8FFA-DB166CB78C54}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Drug_AI_Literature_Review.xlsx
+++ b/Drug_AI_Literature_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengd/Desktop/github/DrugDiscoveryAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94A2C0-9364-8C49-9C58-9751253D733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A87E35-BC01-7F48-B2A2-33456F79917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -162,13 +162,29 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.ejmech.2020.112982.</t>
+  </si>
+  <si>
+    <t>https://github.com/prokia/DL-Anti-Osteoporosis</t>
+  </si>
+  <si>
+    <t>Deep learning enables discovery of highly potent anti-osteoporosis natural products</t>
+  </si>
+  <si>
+    <t>European Journal of Medicinal Chemistry</t>
+  </si>
+  <si>
+    <t>Guangdong Provincial Key Laboratory of Research and Development in Traditional
+Chinese Medicine</t>
+  </si>
+  <si>
+    <t>Jingyuan Sun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +215,13 @@
     <font>
       <u/>
       <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -239,10 +262,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -560,23 +583,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC854739-9A0A-2746-93A9-E813AC43B7EB}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" style="1"/>
     <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -653,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
@@ -733,7 +756,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="76" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -743,17 +766,43 @@
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.5129999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://towardsdatascience.com/review-deep-learning-in-drug-discovery-f4c89e3321e1" xr:uid="{1C3764AE-1EDC-2040-9C23-872FD23BC258}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{34245005-7E5D-254E-88A0-B442358C6A5E}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{06C5F47F-9841-4A48-8FFA-DB166CB78C54}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{6BF7F364-91B7-AE40-BB58-AF7F4C472C65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Drug_AI_Literature_Review.xlsx
+++ b/Drug_AI_Literature_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengd/Desktop/github/DrugDiscoveryAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A87E35-BC01-7F48-B2A2-33456F79917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D4879-13C0-704D-9A12-B7AC5933083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,13 +219,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -262,11 +255,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC854739-9A0A-2746-93A9-E813AC43B7EB}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -598,8 +588,8 @@
     <col min="5" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" style="1"/>
     <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -751,10 +741,10 @@
       <c r="G4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -789,10 +779,10 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Drug_AI_Literature_Review.xlsx
+++ b/Drug_AI_Literature_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengd/Desktop/github/DrugDiscoveryAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D4879-13C0-704D-9A12-B7AC5933083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BEE971-E993-7E44-813F-409F3A41F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -178,13 +178,22 @@
   </si>
   <si>
     <t>Jingyuan Sun</t>
+  </si>
+  <si>
+    <t>American Chemical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	15.414</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.molpharmaceut.6b00248</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +228,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -257,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC854739-9A0A-2746-93A9-E813AC43B7EB}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -586,9 +606,9 @@
     <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" style="1"/>
@@ -693,106 +713,122 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="152" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
-        <v>8.25</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:20" ht="152" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="114" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.5129999999999999</v>
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>264</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://towardsdatascience.com/review-deep-learning-in-drug-discovery-f4c89e3321e1" xr:uid="{1C3764AE-1EDC-2040-9C23-872FD23BC258}"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://towardsdatascience.com/review-deep-learning-in-drug-discovery-f4c89e3321e1" xr:uid="{1C3764AE-1EDC-2040-9C23-872FD23BC258}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{34245005-7E5D-254E-88A0-B442358C6A5E}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{06C5F47F-9841-4A48-8FFA-DB166CB78C54}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{6BF7F364-91B7-AE40-BB58-AF7F4C472C65}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{06C5F47F-9841-4A48-8FFA-DB166CB78C54}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{6BF7F364-91B7-AE40-BB58-AF7F4C472C65}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{1080A746-671F-FF41-BF48-B0A633096F45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Drug_AI_Literature_Review.xlsx
+++ b/Drug_AI_Literature_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengd/Desktop/github/DrugDiscoveryAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BEE971-E993-7E44-813F-409F3A41F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE333475-85D2-784E-BFEF-B809DC69F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{40863D29-887E-0D44-98AF-F8F92E2E86DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Feature Extractor</t>
-  </si>
-  <si>
     <t>Predictor</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
   </si>
   <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>Contributions</t>
-  </si>
-  <si>
-    <t>Guangyong Chen</t>
   </si>
   <si>
     <t>Journal of cheminformatics</t>
@@ -101,15 +92,7 @@
     <t>Hosein Fooladi</t>
   </si>
   <si>
-    <t>Towards Data Science</t>
-  </si>
-  <si>
     <t>Review: Deep Learning In Drug Discovery</t>
-  </si>
-  <si>
-    <t>1、Drug properties prediction
-2、De Novo drug design
-3、Drug-target interaction (DTI) prediction</t>
   </si>
   <si>
     <t>1、drug (compound)
@@ -173,10 +156,6 @@
     <t>European Journal of Medicinal Chemistry</t>
   </si>
   <si>
-    <t>Guangdong Provincial Key Laboratory of Research and Development in Traditional
-Chinese Medicine</t>
-  </si>
-  <si>
     <t>Jingyuan Sun</t>
   </si>
   <si>
@@ -187,6 +166,40 @@
   </si>
   <si>
     <t>https://doi.org/10.1021/acs.molpharmaceut.6b00248</t>
+  </si>
+  <si>
+    <t>Towards Data Science (article)</t>
+  </si>
+  <si>
+    <t>Sharif University</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Dejun Jiang;
+Guangyong Chen;
+Tingjun Hou</t>
+  </si>
+  <si>
+    <t>Guangdong Provincial Key Laboratory of Research and Development in Traditional Chinese Medicine</t>
+  </si>
+  <si>
+    <t>Zhejiang University;
+Shenzhen Institute of Advanced Technology, Chinese Academy of Science</t>
+  </si>
+  <si>
+    <t>Review:
+1、Drug properties prediction
+2、De Novo drug design
+3、Drug-target interaction (DTI) prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 public datasets covering various property endpoints
+</t>
+  </si>
+  <si>
+    <t>1. the informationized molecular graph using atom-level or bond-level features were taken as the input.</t>
   </si>
 </sst>
 </file>
@@ -593,38 +606,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC854739-9A0A-2746-93A9-E813AC43B7EB}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="1"/>
-    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="22.83203125" style="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="101.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="19" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -644,90 +653,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="76" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="76" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="S2" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>8.25</v>
@@ -735,26 +745,28 @@
       <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="76" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>6.5129999999999999</v>
@@ -762,73 +774,88 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="152" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="133" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>28</v>
+      <c r="P5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>264</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>48</v>
+      <c r="P6" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://towardsdatascience.com/review-deep-learning-in-drug-discovery-f4c89e3321e1" xr:uid="{1C3764AE-1EDC-2040-9C23-872FD23BC258}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{34245005-7E5D-254E-88A0-B442358C6A5E}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{06C5F47F-9841-4A48-8FFA-DB166CB78C54}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{6BF7F364-91B7-AE40-BB58-AF7F4C472C65}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{1080A746-671F-FF41-BF48-B0A633096F45}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{34245005-7E5D-254E-88A0-B442358C6A5E}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{06C5F47F-9841-4A48-8FFA-DB166CB78C54}"/>
+    <hyperlink ref="P4" r:id="rId4" xr:uid="{A1741BEC-739F-8740-9636-B85656E95AF1}"/>
+    <hyperlink ref="Q4" r:id="rId5" xr:uid="{6BF7F364-91B7-AE40-BB58-AF7F4C472C65}"/>
+    <hyperlink ref="P6" r:id="rId6" xr:uid="{1080A746-671F-FF41-BF48-B0A633096F45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
